--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gnai2-Lhcgr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gnai2-Lhcgr.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H2">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I2">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J2">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,10 +561,10 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.459412</v>
+        <v>0.4333629999999999</v>
       </c>
       <c r="N2">
-        <v>0.918824</v>
+        <v>0.8667259999999999</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -573,16 +573,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>89.62174311776198</v>
+        <v>78.6529609174225</v>
       </c>
       <c r="R2">
-        <v>358.4869724710479</v>
+        <v>314.61184366969</v>
       </c>
       <c r="S2">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="T2">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,10 +611,10 @@
         <v>187.223767</v>
       </c>
       <c r="I3">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J3">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,10 +623,10 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.459412</v>
+        <v>0.4333629999999999</v>
       </c>
       <c r="N3">
-        <v>0.918824</v>
+        <v>0.8667259999999999</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -635,16 +635,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>28.67094841500133</v>
+        <v>27.04528444614033</v>
       </c>
       <c r="R3">
-        <v>172.025690490008</v>
+        <v>162.271706676842</v>
       </c>
       <c r="S3">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="T3">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H4">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I4">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J4">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,10 +685,10 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.459412</v>
+        <v>0.4333629999999999</v>
       </c>
       <c r="N4">
-        <v>0.918824</v>
+        <v>0.8667259999999999</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -697,16 +697,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>65.63256829186933</v>
+        <v>74.53758299716165</v>
       </c>
       <c r="R4">
-        <v>393.795409751216</v>
+        <v>447.22549798297</v>
       </c>
       <c r="S4">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="T4">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H5">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I5">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J5">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,10 +747,10 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.459412</v>
+        <v>0.4333629999999999</v>
       </c>
       <c r="N5">
-        <v>0.918824</v>
+        <v>0.8667259999999999</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -759,16 +759,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>24.356698606674</v>
+        <v>24.1135287862665</v>
       </c>
       <c r="R5">
-        <v>97.42679442669601</v>
+        <v>96.454115145066</v>
       </c>
       <c r="S5">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="T5">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H6">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I6">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J6">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,10 +809,10 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.459412</v>
+        <v>0.4333629999999999</v>
       </c>
       <c r="N6">
-        <v>0.918824</v>
+        <v>0.8667259999999999</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -821,16 +821,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>66.05601874560799</v>
+        <v>88.14010449407098</v>
       </c>
       <c r="R6">
-        <v>396.336112473648</v>
+        <v>528.840626964426</v>
       </c>
       <c r="S6">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="T6">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H7">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I7">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J7">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,10 +871,10 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.459412</v>
+        <v>0.4333629999999999</v>
       </c>
       <c r="N7">
-        <v>0.918824</v>
+        <v>0.8667259999999999</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -883,16 +883,16 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>65.06047646376666</v>
+        <v>58.72034486550166</v>
       </c>
       <c r="R7">
-        <v>390.3628587826</v>
+        <v>352.32206919301</v>
       </c>
       <c r="S7">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="T7">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
     </row>
   </sheetData>
